--- a/shinyapp/data/familyeng2.xlsx
+++ b/shinyapp/data/familyeng2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nandinidas/Desktop/2022_DSPG_Loudoun/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/DSPG-R-Training/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8D58457-E44B-7643-8C08-2A41F2ECA517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15CE7A8-DCE2-6B4B-B3CC-DD3B710830A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41160" yWindow="2740" windowWidth="27640" windowHeight="16440" xr2:uid="{65F6D29C-19CE-E047-BA2D-A89353B9AD66}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{65F6D29C-19CE-E047-BA2D-A89353B9AD66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,15 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
     <t xml:space="preserve">Loudouon Literacy Council </t>
   </si>
   <si>
@@ -73,12 +63,6 @@
     <t>http://library.loudoun.gov</t>
   </si>
   <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Crossroads Jobs</t>
   </si>
   <si>
@@ -94,9 +78,6 @@
     <t>https://www.loudoun.gov/1592/Workforce-Resource-Center</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Family Education</t>
   </si>
   <si>
@@ -149,6 +130,24 @@
   </si>
   <si>
     <t xml:space="preserve">Other </t>
+  </si>
+  <si>
+    <t>Name8</t>
+  </si>
+  <si>
+    <t>Description8</t>
+  </si>
+  <si>
+    <t>Website8</t>
+  </si>
+  <si>
+    <t>Latitude8</t>
+  </si>
+  <si>
+    <t>Longitude8</t>
+  </si>
+  <si>
+    <t>Type8</t>
   </si>
 </sst>
 </file>
@@ -535,7 +534,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -547,25 +546,25 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="1"/>
@@ -574,13 +573,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <v>39.034731000000001</v>
@@ -589,7 +588,7 @@
         <v>-77.401696999999999</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="5"/>
@@ -599,13 +598,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
         <v>39.027190400000002</v>
@@ -614,7 +613,7 @@
         <v>-77.408413899999999</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="5"/>
@@ -624,13 +623,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>38.989677999999998</v>
@@ -639,18 +638,18 @@
         <v>-77.427879000000004</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="43" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
         <v>39.112604699999999</v>
@@ -659,18 +658,18 @@
         <v>-77.566093300000006</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="43" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
         <v>39.114444800000001</v>
@@ -679,18 +678,18 @@
         <v>-77.541544200000004</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>39.052760999999997</v>
@@ -699,21 +698,21 @@
         <v>-77.360856999999996</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
         <v>39.109718000000001</v>
@@ -722,21 +721,21 @@
         <v>-77.556811499999995</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>39.048402699999997</v>
@@ -745,21 +744,21 @@
         <v>-77.394760070000004</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>39.112604699999999</v>
@@ -768,10 +767,10 @@
         <v>-77.566093300000006</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/shinyapp/data/familyeng2.xlsx
+++ b/shinyapp/data/familyeng2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/DSPG-R-Training/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15CE7A8-DCE2-6B4B-B3CC-DD3B710830A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1CA6EB-8380-7B4D-B8FC-C167559C1687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{65F6D29C-19CE-E047-BA2D-A89353B9AD66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,6 +36,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
     <t xml:space="preserve">Loudouon Literacy Council </t>
   </si>
   <si>
@@ -63,6 +72,12 @@
     <t>http://library.loudoun.gov</t>
   </si>
   <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Crossroads Jobs</t>
   </si>
   <si>
@@ -78,6 +93,9 @@
     <t>https://www.loudoun.gov/1592/Workforce-Resource-Center</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Family Education</t>
   </si>
   <si>
@@ -130,24 +148,6 @@
   </si>
   <si>
     <t xml:space="preserve">Other </t>
-  </si>
-  <si>
-    <t>Name8</t>
-  </si>
-  <si>
-    <t>Description8</t>
-  </si>
-  <si>
-    <t>Website8</t>
-  </si>
-  <si>
-    <t>Latitude8</t>
-  </si>
-  <si>
-    <t>Longitude8</t>
-  </si>
-  <si>
-    <t>Type8</t>
   </si>
 </sst>
 </file>
@@ -533,9 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EFE19D-D7CF-D64B-997B-024A4C872F6D}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -546,25 +544,25 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="1"/>
@@ -573,13 +571,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2">
         <v>39.034731000000001</v>
@@ -588,7 +586,7 @@
         <v>-77.401696999999999</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="5"/>
@@ -598,13 +596,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>39.027190400000002</v>
@@ -613,7 +611,7 @@
         <v>-77.408413899999999</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="5"/>
@@ -623,13 +621,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2">
         <v>38.989677999999998</v>
@@ -638,18 +636,18 @@
         <v>-77.427879000000004</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="43" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
         <v>39.112604699999999</v>
@@ -658,18 +656,18 @@
         <v>-77.566093300000006</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="43" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>39.114444800000001</v>
@@ -678,18 +676,18 @@
         <v>-77.541544200000004</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>39.052760999999997</v>
@@ -698,21 +696,21 @@
         <v>-77.360856999999996</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>39.109718000000001</v>
@@ -721,21 +719,21 @@
         <v>-77.556811499999995</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>39.048402699999997</v>
@@ -744,21 +742,21 @@
         <v>-77.394760070000004</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2">
         <v>39.112604699999999</v>
@@ -767,10 +765,10 @@
         <v>-77.566093300000006</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
